--- a/src/main/resources/reservationdata/reservation-data.xlsx
+++ b/src/main/resources/reservationdata/reservation-data.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>reservationId</t>
   </si>
@@ -88,6 +88,18 @@
   </si>
   <si>
     <t>#4026: Toyota Corolla</t>
+  </si>
+  <si>
+    <t>ABC78</t>
+  </si>
+  <si>
+    <t>XY123</t>
+  </si>
+  <si>
+    <t>vehicleNo</t>
+  </si>
+  <si>
+    <t>MN456</t>
   </si>
 </sst>
 </file>
@@ -198,7 +210,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -233,7 +245,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -442,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -458,7 +470,7 @@
     <col min="8" max="8" width="96.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -492,8 +504,11 @@
       <c r="K1" t="s">
         <v>19</v>
       </c>
+      <c r="L1" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>93968</v>
       </c>
@@ -527,8 +542,11 @@
       <c r="K2" t="s">
         <v>20</v>
       </c>
+      <c r="L2" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>93961</v>
       </c>
@@ -562,8 +580,11 @@
       <c r="K3" t="s">
         <v>21</v>
       </c>
+      <c r="L3" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>93967</v>
       </c>
@@ -596,6 +617,9 @@
       </c>
       <c r="K4" t="s">
         <v>23</v>
+      </c>
+      <c r="L4" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
